--- a/Spraw1/lab1.xlsx
+++ b/Spraw1/lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Janek\DEV\Gitowe\FIZ31\Spraw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8FE85B-C1B2-49C9-BAFA-0C79DC4A510F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023AC29E-36BC-436A-B3C9-5CF870B859D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="1965" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,40 +31,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>U(V)</t>
   </si>
   <si>
-    <t>u(U)</t>
-  </si>
-  <si>
     <t>I[mA]</t>
   </si>
   <si>
-    <t>u_c(R)</t>
-  </si>
-  <si>
-    <t>u_c(R_w)</t>
-  </si>
-  <si>
-    <t>R(_)</t>
-  </si>
-  <si>
     <t>R_w[Ω]</t>
   </si>
   <si>
-    <t>Ten arkusz zostal stworzony uzywajac angielskiej wersji excela przez co do notacji zmiennoprzecinkowej sluza kropki "." a nie przecinki ","</t>
-  </si>
-  <si>
-    <t>u(I)</t>
+    <t>Ten arkusz zostal stworzony uzywajac angielskiej notacji przez co do notacji zmiennoprzecinkowej sluza kropki "." a nie przecinki ","</t>
+  </si>
+  <si>
+    <r>
+      <t>R[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω]</t>
+    </r>
+  </si>
+  <si>
+    <t>u(I)[mA]</t>
+  </si>
+  <si>
+    <t>u(U)[V]</t>
+  </si>
+  <si>
+    <r>
+      <t>u_c(R)[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>u_c(R_w)[Ω]</t>
+  </si>
+  <si>
+    <r>
+      <t>R_srednia[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +147,13 @@
       <color rgb="FFE5C07B"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -437,24 +493,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -462,39 +520,45 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>0.19</v>
+      </c>
       <c r="D13" s="4">
         <v>3.29</v>
       </c>
@@ -505,18 +569,28 @@
         <v>18.7</v>
       </c>
       <c r="G13" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="H13" s="4" t="e">
-        <f ca="1">pie( (pot(1/F13) )*pot(E13) - (pot(D13/pot(F13) )) *pot(G13))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+        <f>ROUND(B13,1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="4">
+        <f>ROUND(D13/(F13/1000),2)</f>
+        <v>175.94</v>
+      </c>
+      <c r="I13" s="4">
+        <f>ROUND(SQRT( POWER((E13/(F13/1000)),2) + POWER(D13/POWER(F13/1000,2),2) *POWER(G13/1000,2)),2)</f>
+        <v>2.16</v>
+      </c>
+      <c r="J13" s="4">
+        <f>ROUND(SUM(H13:H18)/6,2)</f>
+        <v>175</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>0.25</v>
+      </c>
       <c r="D14" s="4">
         <v>4.78</v>
       </c>
@@ -527,15 +601,25 @@
         <v>27.8</v>
       </c>
       <c r="G14" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+        <f t="shared" ref="G14:G18" si="0">ROUND(B14,1)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" ref="H14:H18" si="1">ROUND(D14/(F14/1000),2)</f>
+        <v>171.94</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" ref="I14:I18" si="2">ROUND(SQRT( POWER((E14/(F14/1000)),2) + POWER(D14/POWER(F14/1000,2),2) *POWER(G14/1000,2)),2)</f>
+        <v>1.99</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0.31</v>
+      </c>
       <c r="D15" s="4">
         <v>6.35</v>
       </c>
@@ -546,15 +630,25 @@
         <v>36.1</v>
       </c>
       <c r="G15" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="4">
+        <f>ROUND(D15/(F15/1000),2)</f>
+        <v>175.9</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.56</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0.37</v>
+      </c>
       <c r="D16" s="4">
         <v>7.89</v>
       </c>
@@ -565,15 +659,25 @@
         <v>44.9</v>
       </c>
       <c r="G16" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>175.72</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0.43</v>
+      </c>
       <c r="D17" s="4">
         <v>9.5</v>
       </c>
@@ -584,15 +688,25 @@
         <v>54.2</v>
       </c>
       <c r="G17" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>175.28</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>1.41</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="D18" s="4">
         <v>12.44</v>
       </c>
@@ -603,15 +717,64 @@
         <v>71</v>
       </c>
       <c r="G18" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>175.21</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>1.58</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82F1E702-94CD-46C8-8649-66FBD566E834}">
+          <x14:colorSeries theme="3" tint="0.34998626667073579"/>
+          <x14:colorNegative theme="0" tint="-0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="0" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="0" tint="-0.249977111117893"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="0" tint="-0.249977111117893"/>
+          <x14:colorLow theme="0" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G13:G13</xm:f>
+              <xm:sqref>D13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G14:G14</xm:f>
+              <xm:sqref>D14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G15:G15</xm:f>
+              <xm:sqref>D15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G16:G16</xm:f>
+              <xm:sqref>D16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G17:G17</xm:f>
+              <xm:sqref>D17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G18:G18</xm:f>
+              <xm:sqref>D18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Spraw1/lab1.xlsx
+++ b/Spraw1/lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Janek\DEV\Gitowe\FIZ31\Spraw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023AC29E-36BC-436A-B3C9-5CF870B859D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28967034-71D5-42E6-BDA5-13553313BCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1965" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>U(V)</t>
   </si>
@@ -107,6 +107,24 @@
       </rPr>
       <t>Ω]</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>u(R_srednia)[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω]</t>
+    </r>
+  </si>
+  <si>
+    <t>srednia:</t>
   </si>
 </sst>
 </file>
@@ -170,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,12 +211,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -210,6 +239,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
@@ -491,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:L18"/>
+  <dimension ref="A6:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,19 +533,20 @@
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -523,10 +554,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
@@ -549,13 +581,16 @@
         <v>9</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>0.19</v>
       </c>
@@ -581,13 +616,17 @@
         <v>2.16</v>
       </c>
       <c r="J13" s="4">
-        <f>ROUND(SUM(H13:H18)/6,2)</f>
+        <f>J15</f>
         <v>175</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <f>(H13-J13)^2</f>
+        <v>0.88359999999999572</v>
+      </c>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>0.25</v>
       </c>
@@ -612,11 +651,17 @@
         <f t="shared" ref="I14:I18" si="2">ROUND(SQRT( POWER((E14/(F14/1000)),2) + POWER(D14/POWER(F14/1000,2),2) *POWER(G14/1000,2)),2)</f>
         <v>1.99</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="J14" s="4">
+        <v>175</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" ref="K14:K18" si="3">(H14-J14)^2</f>
+        <v>9.3636000000000141</v>
+      </c>
       <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>0.31</v>
       </c>
@@ -641,11 +686,17 @@
         <f t="shared" si="2"/>
         <v>1.56</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="J15" s="4">
+        <v>175</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81000000000001027</v>
+      </c>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>0.37</v>
       </c>
@@ -670,11 +721,17 @@
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="4">
+        <v>175</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.51839999999999842</v>
+      </c>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>0.43</v>
       </c>
@@ -699,11 +756,17 @@
         <f t="shared" si="2"/>
         <v>1.41</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="J17" s="4">
+        <v>175</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="3"/>
+        <v>7.8400000000000636E-2</v>
+      </c>
       <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>0.55000000000000004</v>
       </c>
@@ -728,9 +791,28 @@
         <f t="shared" si="2"/>
         <v>1.58</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="4">
+        <v>175</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="3"/>
+        <v>4.4100000000003345E-2</v>
+      </c>
       <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="5">
+        <f>SUM(H13:H18)/6</f>
+        <v>174.99833333333333</v>
+      </c>
+      <c r="K19" s="5">
+        <f>ROUND(SQRT(SUM(K13:K18)/6*5),2)</f>
+        <v>3.12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spraw1/lab1.xlsx
+++ b/Spraw1/lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Janek\DEV\Gitowe\FIZ31\Spraw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28967034-71D5-42E6-BDA5-13553313BCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E98F7B-C49A-4FA2-93FD-3715207055C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37335" yWindow="7260" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,8 +810,8 @@
         <v>174.99833333333333</v>
       </c>
       <c r="K19" s="5">
-        <f>ROUND(SQRT(SUM(K13:K18)/6*5),2)</f>
-        <v>3.12</v>
+        <f>ROUND(SQRT(SUM(K13:K18)/(6*5)),2)</f>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -819,6 +819,42 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{9FA432DF-34F7-4C5C-A4C6-C1ECD8126F30}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D13:D13</xm:f>
+              <xm:sqref>G13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D14:D14</xm:f>
+              <xm:sqref>G14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D15:D15</xm:f>
+              <xm:sqref>G15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D16:D16</xm:f>
+              <xm:sqref>G16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D17:D17</xm:f>
+              <xm:sqref>G17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D18:D18</xm:f>
+              <xm:sqref>G18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82F1E702-94CD-46C8-8649-66FBD566E834}">
           <x14:colorSeries theme="3" tint="0.34998626667073579"/>
           <x14:colorNegative theme="0" tint="-0.249977111117893"/>

--- a/Spraw1/lab1.xlsx
+++ b/Spraw1/lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Janek\DEV\Gitowe\FIZ31\Spraw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E98F7B-C49A-4FA2-93FD-3715207055C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C300E4-321D-40E8-9E99-A27FA493B9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37335" yWindow="7260" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="1965" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>U(V)</t>
-  </si>
-  <si>
-    <t>I[mA]</t>
   </si>
   <si>
     <t>R_w[Ω]</t>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t>srednia:</t>
+  </si>
+  <si>
+    <t>u(I)[A]</t>
+  </si>
+  <si>
+    <t>I[A]</t>
   </si>
 </sst>
 </file>
@@ -256,6 +259,1311 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Napięcie od Natężenia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$T$20:$T$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.9000000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5000000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.1E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6999999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2999999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.5000000000000003E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$T$20:$T$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.9000000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5000000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.1E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6999999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2999999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.5000000000000003E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$S$20:$S$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$S$20:$S$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$O$20:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$P$20:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.61E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33B7-4CD3-83F6-2F46E4562AAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="686192768"/>
+        <c:axId val="686193424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="686192768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>U[V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686193424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="686193424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>I[A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686192768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>417396</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>521804</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42054</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271410A1-75CC-4AE7-9818-D02ED5331DAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,20 +1829,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:M19"/>
+  <dimension ref="A6:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.42578125" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -543,7 +1852,7 @@
   <sheetData>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -559,40 +1868,43 @@
       <c r="M8" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
-        <v>0.19</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D13" s="4">
         <v>3.29</v>
@@ -601,19 +1913,19 @@
         <v>0.02</v>
       </c>
       <c r="F13" s="4">
-        <v>18.7</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="G13" s="4">
-        <f>ROUND(B13,1)</f>
+        <f>ROUND(B13*1000,1)</f>
         <v>0.2</v>
       </c>
       <c r="H13" s="4">
         <f>ROUND(D13/(F13/1000),2)</f>
-        <v>175.94</v>
+        <v>175935.83</v>
       </c>
       <c r="I13" s="4">
         <f>ROUND(SQRT( POWER((E13/(F13/1000)),2) + POWER(D13/POWER(F13/1000,2),2) *POWER(G13/1000,2)),2)</f>
-        <v>2.16</v>
+        <v>1881666.92</v>
       </c>
       <c r="J13" s="4">
         <f>J15</f>
@@ -621,14 +1933,14 @@
       </c>
       <c r="K13" s="4">
         <f>(H13-J13)^2</f>
-        <v>0.88359999999999572</v>
+        <v>30891869362.288895</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
-        <v>0.25</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D14" s="4">
         <v>4.78</v>
@@ -637,33 +1949,33 @@
         <v>0.02</v>
       </c>
       <c r="F14" s="4">
-        <v>27.8</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" ref="G14:G18" si="0">ROUND(B14,1)</f>
+        <f>ROUND(B14*1000,1)</f>
         <v>0.3</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" ref="H14:H18" si="1">ROUND(D14/(F14/1000),2)</f>
-        <v>171.94</v>
+        <f t="shared" ref="H14:H18" si="0">ROUND(D14/(F14/1000),2)</f>
+        <v>171942.45</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ref="I14:I18" si="2">ROUND(SQRT( POWER((E14/(F14/1000)),2) + POWER(D14/POWER(F14/1000,2),2) *POWER(G14/1000,2)),2)</f>
-        <v>1.99</v>
+        <f t="shared" ref="I14:I18" si="1">ROUND(SQRT( POWER((E14/(F14/1000)),2) + POWER(D14/POWER(F14/1000,2),2) *POWER(G14/1000,2)),2)</f>
+        <v>1855494.16</v>
       </c>
       <c r="J14" s="4">
         <v>175</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" ref="K14:K18" si="3">(H14-J14)^2</f>
-        <v>9.3636000000000141</v>
+        <f t="shared" ref="K14:K18" si="2">(H14-J14)^2</f>
+        <v>29504056879.502502</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
-        <v>0.31</v>
+        <v>3.1E-4</v>
       </c>
       <c r="D15" s="4">
         <v>6.35</v>
@@ -672,33 +1984,33 @@
         <v>0.02</v>
       </c>
       <c r="F15" s="4">
-        <v>36.1</v>
+        <v>3.61E-2</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="0"/>
+        <f>ROUND(B15*1000,1)</f>
         <v>0.3</v>
       </c>
       <c r="H15" s="4">
         <f>ROUND(D15/(F15/1000),2)</f>
-        <v>175.9</v>
+        <v>175900.28</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>1.56</v>
+        <f t="shared" si="1"/>
+        <v>1461775.26</v>
       </c>
       <c r="J15" s="4">
         <v>175</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="3"/>
-        <v>0.81000000000001027</v>
+        <f t="shared" si="2"/>
+        <v>30879374031.0784</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
-        <v>0.37</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="D16" s="4">
         <v>7.89</v>
@@ -707,33 +2019,33 @@
         <v>0.03</v>
       </c>
       <c r="F16" s="4">
-        <v>44.9</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="G16" s="4">
+        <f>ROUND(B16*1000,1)</f>
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="H16" s="4">
+        <v>175723.83</v>
+      </c>
+      <c r="I16" s="4">
         <f t="shared" si="1"/>
-        <v>175.72</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>1.7</v>
+        <v>1565468.57</v>
       </c>
       <c r="J16" s="4">
         <v>175</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="3"/>
-        <v>0.51839999999999842</v>
+        <f t="shared" si="2"/>
+        <v>30817391714.368896</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
-        <v>0.43</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="D17" s="4">
         <v>9.5</v>
@@ -742,33 +2054,33 @@
         <v>0.03</v>
       </c>
       <c r="F17" s="4">
-        <v>54.2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="G17" s="4">
+        <f>ROUND(B17*1000,1)</f>
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="H17" s="4">
+        <v>175276.75</v>
+      </c>
+      <c r="I17" s="4">
         <f t="shared" si="1"/>
-        <v>175.28</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>1.41</v>
+        <v>1293555.49</v>
       </c>
       <c r="J17" s="4">
         <v>175</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="3"/>
-        <v>7.8400000000000636E-2</v>
+        <f t="shared" si="2"/>
+        <v>30660622853.0625</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
-        <v>0.55000000000000004</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="D18" s="4">
         <v>12.44</v>
@@ -777,48 +2089,492 @@
         <v>0.04</v>
       </c>
       <c r="F18" s="4">
-        <v>71</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="G18" s="4">
+        <f>ROUND(B18*1000,1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H18" s="4">
+        <v>175211.27</v>
+      </c>
+      <c r="I18" s="4">
         <f t="shared" si="1"/>
-        <v>175.21</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>1.58</v>
+        <v>1480658.71</v>
       </c>
       <c r="J18" s="4">
         <v>175</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="3"/>
-        <v>4.4100000000003345E-2</v>
+        <f t="shared" si="2"/>
+        <v>30637695815.512897</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="5">
         <f>SUM(H13:H18)/6</f>
-        <v>174.99833333333333</v>
+        <v>174998.40166666664</v>
       </c>
       <c r="K19" s="5">
         <f>ROUND(SQRT(SUM(K13:K18)/(6*5)),2)</f>
-        <v>0.62</v>
+        <v>78185.89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O20" s="4">
+        <v>3.29</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O21" s="4">
+        <v>4.78</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="T21" s="4">
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>LINEST(F13:F18,D13:D18,TRUE,TRUE)</f>
+        <v>5.6892706660996465E-3</v>
+      </c>
+      <c r="D22">
+        <f t="array" ref="D22">LINEST(G13:G18,E13:E18,TRUE,TRUE)</f>
+        <v>16.000000000000004</v>
+      </c>
+      <c r="E22">
+        <f t="array" ref="E22">LINEST(H13:H18,F13:F18,TRUE,TRUE)</f>
+        <v>15698.44951500454</v>
+      </c>
+      <c r="F22">
+        <f t="array" ref="F22">LINEST(I13:I18,G13:G18,TRUE,TRUE)</f>
+        <v>-1006870.8607142859</v>
+      </c>
+      <c r="G22">
+        <f t="array" ref="G22">LINEST(J13:J18,H13:H18,TRUE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="array" ref="H22">LINEST(K13:K18,I13:I18,TRUE,TRUE)</f>
+        <v>-987.88666759040439</v>
+      </c>
+      <c r="O22" s="4">
+        <v>6.35</v>
+      </c>
+      <c r="P22" s="4">
+        <v>3.61E-2</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="T22" s="4">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C23" t="e">
+        <f t="array" ref="C23">LINEST(F14:F19,D14:D19,TRUE,TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O23" s="4">
+        <v>7.89</v>
+      </c>
+      <c r="P23" s="4">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="T23" s="4">
+        <v>3.6999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C24" t="e">
+        <f t="array" ref="C24">LINEST(F15:F20,D15:D20,TRUE,TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O24" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="P24" s="4">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="T24" s="4">
+        <v>4.2999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C25" t="e">
+        <f t="array" ref="C25">LINEST(F16:F21,D16:D21,TRUE,TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O25" s="4">
+        <v>12.44</v>
+      </c>
+      <c r="P25" s="4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="T25" s="4">
+        <v>5.5000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C26" t="e">
+        <f t="array" ref="C26">LINEST(F17:F22,D17:D22,TRUE,TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E28" s="4">
+        <v>3.29</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E29" s="4">
+        <v>4.78</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G29" s="4">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E30" s="4">
+        <v>6.35</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G30" s="4">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E31" s="4">
+        <v>7.89</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G31" s="4">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E32" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G32" s="4">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E33" s="4">
+        <v>12.44</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="G33" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="array" ref="C36:D37">LINEST(F13:F18,D13:D18,TRUE,TRUE)</f>
+        <v>5.6892706660996465E-3</v>
+      </c>
+      <c r="D36">
+        <v>1.5829550418176852E-4</v>
+      </c>
+      <c r="I36">
+        <f t="array" ref="I36">LINEST(F13:F18, D13:D18,TRUE,TRUE)</f>
+        <v>5.6892706660996465E-3</v>
+      </c>
+      <c r="J36">
+        <f>LINEST(G13:G18, E13:E18,TRUE,TRUE)</f>
+        <v>16.000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>3.6407502674539565E-5</v>
+      </c>
+      <c r="D37">
+        <v>2.902154906406708E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{634DB51B-E217-4024-A65E-37D5E42ADEDE}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N20:N20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N21:N21</xm:f>
+              <xm:sqref>P21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N22:N22</xm:f>
+              <xm:sqref>P22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N23:N23</xm:f>
+              <xm:sqref>P23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N24:N24</xm:f>
+              <xm:sqref>P24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N25:N25</xm:f>
+              <xm:sqref>P25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E4CB2CC6-7D6B-480A-B03C-593C12C693FC}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P20:P20</xm:f>
+              <xm:sqref>O20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P21:P21</xm:f>
+              <xm:sqref>O21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P22:P22</xm:f>
+              <xm:sqref>O22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P23:P23</xm:f>
+              <xm:sqref>O23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P24:P24</xm:f>
+              <xm:sqref>O24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P25:P25</xm:f>
+              <xm:sqref>O25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{364145CD-ACF0-4791-9CB1-5003D1F087A2}">
+          <x14:colorSeries theme="4"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
+          <x14:colorLast theme="4" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="4" tint="-0.249977111117893"/>
+          <x14:colorLow theme="4" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G29:G29</xm:f>
+              <xm:sqref>E29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G30:G30</xm:f>
+              <xm:sqref>E30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G31:G31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G32:G32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G33:G33</xm:f>
+              <xm:sqref>E33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82D0AFD7-5C74-4C79-A2F2-0F589546B4B8}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E28:E28</xm:f>
+              <xm:sqref>G28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E29:E29</xm:f>
+              <xm:sqref>G29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E30:E30</xm:f>
+              <xm:sqref>G30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E31:E31</xm:f>
+              <xm:sqref>G31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E32:E32</xm:f>
+              <xm:sqref>G32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E33:E33</xm:f>
+              <xm:sqref>G33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{33BA76A2-D7DC-4A84-B389-A0C0A98C6DD9}">
+          <x14:colorSeries theme="3" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G28:G28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3E3E39AC-A8C5-431E-B75D-0BB8FD868B02}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D13:D13</xm:f>
+              <xm:sqref>F13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D14:D14</xm:f>
+              <xm:sqref>F14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D15:D15</xm:f>
+              <xm:sqref>F15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D16:D16</xm:f>
+              <xm:sqref>F16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D17:D17</xm:f>
+              <xm:sqref>F17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D18:D18</xm:f>
+              <xm:sqref>F18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{931203B0-70C3-4DA2-8CF6-BA8919284A2E}">
+          <x14:colorSeries theme="3" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F13:F13</xm:f>
+              <xm:sqref>D13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F14:F14</xm:f>
+              <xm:sqref>D14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F15:F15</xm:f>
+              <xm:sqref>D15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F16:F16</xm:f>
+              <xm:sqref>D16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F17:F17</xm:f>
+              <xm:sqref>D17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F18:F18</xm:f>
+              <xm:sqref>D18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{9FA432DF-34F7-4C5C-A4C6-C1ECD8126F30}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -855,42 +2611,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82F1E702-94CD-46C8-8649-66FBD566E834}">
-          <x14:colorSeries theme="3" tint="0.34998626667073579"/>
-          <x14:colorNegative theme="0" tint="-0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="0" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="0" tint="-0.249977111117893"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="0" tint="-0.249977111117893"/>
-          <x14:colorLow theme="0" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G13:G13</xm:f>
-              <xm:sqref>D13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G14:G14</xm:f>
-              <xm:sqref>D14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G15:G15</xm:f>
-              <xm:sqref>D15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G16:G16</xm:f>
-              <xm:sqref>D16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G17:G17</xm:f>
-              <xm:sqref>D17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G18:G18</xm:f>
-              <xm:sqref>D18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/Spraw1/lab1.xlsx
+++ b/Spraw1/lab1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Janek\DEV\Gitowe\FIZ31\Spraw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\Programy\FIZ31\Spraw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C300E4-321D-40E8-9E99-A27FA493B9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E385A-F7A4-4C17-976E-045BDEC2D309}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1965" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -245,8 +245,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -264,7 +264,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -394,11 +394,75 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12490573725998601"/>
+                  <c:y val="-5.0614658323883087E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 0.0057x + 0.0002</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="pl-PL" sz="1400" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+                      <a:t>Niepewnosc :</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+                      <a:t>A=0.0002</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+                      <a:t>B=0.0003</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
-                  <a:noFill/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:alpha val="94000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1529,16 +1593,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>417396</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76615</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205361</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>109746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>521804</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>42054</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>940905</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>159027</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1831,31 +1895,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.44140625" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1867,7 +1931,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>1.9000000000000001E-4</v>
       </c>
@@ -1916,7 +1980,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="G13" s="4">
-        <f>ROUND(B13*1000,1)</f>
+        <f t="shared" ref="G13:G18" si="0">ROUND(B13*1000,1)</f>
         <v>0.2</v>
       </c>
       <c r="H13" s="4">
@@ -1938,7 +2002,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
@@ -1952,28 +2016,28 @@
         <v>2.7799999999999998E-2</v>
       </c>
       <c r="G14" s="4">
-        <f>ROUND(B14*1000,1)</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" ref="H14:H18" si="0">ROUND(D14/(F14/1000),2)</f>
+        <f t="shared" ref="H14:H18" si="1">ROUND(D14/(F14/1000),2)</f>
         <v>171942.45</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ref="I14:I18" si="1">ROUND(SQRT( POWER((E14/(F14/1000)),2) + POWER(D14/POWER(F14/1000,2),2) *POWER(G14/1000,2)),2)</f>
+        <f t="shared" ref="I14:I18" si="2">ROUND(SQRT( POWER((E14/(F14/1000)),2) + POWER(D14/POWER(F14/1000,2),2) *POWER(G14/1000,2)),2)</f>
         <v>1855494.16</v>
       </c>
       <c r="J14" s="4">
         <v>175</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" ref="K14:K18" si="2">(H14-J14)^2</f>
+        <f t="shared" ref="K14:K18" si="3">(H14-J14)^2</f>
         <v>29504056879.502502</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>3.1E-4</v>
       </c>
@@ -1987,7 +2051,7 @@
         <v>3.61E-2</v>
       </c>
       <c r="G15" s="4">
-        <f>ROUND(B15*1000,1)</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="H15" s="4">
@@ -1995,20 +2059,20 @@
         <v>175900.28</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1461775.26</v>
       </c>
       <c r="J15" s="4">
         <v>175</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30879374031.0784</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -2022,28 +2086,28 @@
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="G16" s="4">
-        <f>ROUND(B16*1000,1)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>175723.83</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1565468.57</v>
       </c>
       <c r="J16" s="4">
         <v>175</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30817391714.368896</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>4.2999999999999999E-4</v>
       </c>
@@ -2057,28 +2121,28 @@
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="G17" s="4">
-        <f>ROUND(B17*1000,1)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>175276.75</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1293555.49</v>
       </c>
       <c r="J17" s="4">
         <v>175</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30660622853.0625</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>5.5000000000000003E-4</v>
       </c>
@@ -2092,28 +2156,28 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="G18" s="4">
-        <f>ROUND(B18*1000,1)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>175211.27</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1480658.71</v>
       </c>
       <c r="J18" s="4">
         <v>175</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30637695815.512897</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2190,7 @@
         <v>78185.89</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="O20" s="4">
         <v>3.29</v>
       </c>
@@ -2140,7 +2204,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="O21" s="4">
         <v>4.78</v>
       </c>
@@ -2154,7 +2218,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>LINEST(F13:F18,D13:D18,TRUE,TRUE)</f>
         <v>5.6892706660996465E-3</v>
@@ -2192,7 +2256,7 @@
         <v>3.1E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C23" t="e">
         <f t="array" ref="C23">LINEST(F14:F19,D14:D19,TRUE,TRUE)</f>
         <v>#VALUE!</v>
@@ -2210,7 +2274,7 @@
         <v>3.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C24" t="e">
         <f t="array" ref="C24">LINEST(F15:F20,D15:D20,TRUE,TRUE)</f>
         <v>#VALUE!</v>
@@ -2228,7 +2292,7 @@
         <v>4.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C25" t="e">
         <f t="array" ref="C25">LINEST(F16:F21,D16:D21,TRUE,TRUE)</f>
         <v>#VALUE!</v>
@@ -2246,13 +2310,13 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C26" t="e">
         <f t="array" ref="C26">LINEST(F17:F22,D17:D22,TRUE,TRUE)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E28" s="4">
         <v>3.29</v>
       </c>
@@ -2261,7 +2325,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E29" s="4">
         <v>4.78</v>
       </c>
@@ -2272,7 +2336,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E30" s="4">
         <v>6.35</v>
       </c>
@@ -2283,7 +2347,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E31" s="4">
         <v>7.89</v>
       </c>
@@ -2294,7 +2358,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E32" s="4">
         <v>9.5</v>
       </c>
@@ -2305,7 +2369,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E33" s="4">
         <v>12.44</v>
       </c>
@@ -2316,7 +2380,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C36">
         <f t="array" ref="C36:D37">LINEST(F13:F18,D13:D18,TRUE,TRUE)</f>
         <v>5.6892706660996465E-3</v>
@@ -2333,7 +2397,7 @@
         <v>16.000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>3.6407502674539565E-5</v>
       </c>
@@ -2347,7 +2411,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{634DB51B-E217-4024-A65E-37D5E42ADEDE}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{9FA432DF-34F7-4C5C-A4C6-C1ECD8126F30}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2358,28 +2422,184 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Arkusz1!N20:N20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N21:N21</xm:f>
-              <xm:sqref>P21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N22:N22</xm:f>
-              <xm:sqref>P22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N23:N23</xm:f>
-              <xm:sqref>P23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N24:N24</xm:f>
-              <xm:sqref>P24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N25:N25</xm:f>
-              <xm:sqref>P25</xm:sqref>
+              <xm:f>Arkusz1!D13:D13</xm:f>
+              <xm:sqref>G13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D14:D14</xm:f>
+              <xm:sqref>G14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D15:D15</xm:f>
+              <xm:sqref>G15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D16:D16</xm:f>
+              <xm:sqref>G16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D17:D17</xm:f>
+              <xm:sqref>G17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D18:D18</xm:f>
+              <xm:sqref>G18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{931203B0-70C3-4DA2-8CF6-BA8919284A2E}">
+          <x14:colorSeries theme="3" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F13:F13</xm:f>
+              <xm:sqref>D13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F14:F14</xm:f>
+              <xm:sqref>D14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F15:F15</xm:f>
+              <xm:sqref>D15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F16:F16</xm:f>
+              <xm:sqref>D16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F17:F17</xm:f>
+              <xm:sqref>D17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F18:F18</xm:f>
+              <xm:sqref>D18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3E3E39AC-A8C5-431E-B75D-0BB8FD868B02}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D13:D13</xm:f>
+              <xm:sqref>F13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D14:D14</xm:f>
+              <xm:sqref>F14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D15:D15</xm:f>
+              <xm:sqref>F15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D16:D16</xm:f>
+              <xm:sqref>F16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D17:D17</xm:f>
+              <xm:sqref>F17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D18:D18</xm:f>
+              <xm:sqref>F18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{33BA76A2-D7DC-4A84-B389-A0C0A98C6DD9}">
+          <x14:colorSeries theme="3" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G28:G28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82D0AFD7-5C74-4C79-A2F2-0F589546B4B8}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E28:E28</xm:f>
+              <xm:sqref>G28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E29:E29</xm:f>
+              <xm:sqref>G29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E30:E30</xm:f>
+              <xm:sqref>G30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E31:E31</xm:f>
+              <xm:sqref>G31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E32:E32</xm:f>
+              <xm:sqref>G32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E33:E33</xm:f>
+              <xm:sqref>G33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{364145CD-ACF0-4791-9CB1-5003D1F087A2}">
+          <x14:colorSeries theme="4"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
+          <x14:colorLast theme="4" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="4" tint="-0.249977111117893"/>
+          <x14:colorLow theme="4" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G29:G29</xm:f>
+              <xm:sqref>E29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G30:G30</xm:f>
+              <xm:sqref>E30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G31:G31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G32:G32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G33:G33</xm:f>
+              <xm:sqref>E33</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2419,39 +2639,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{364145CD-ACF0-4791-9CB1-5003D1F087A2}">
-          <x14:colorSeries theme="4"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
-          <x14:colorLast theme="4" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="4" tint="-0.249977111117893"/>
-          <x14:colorLow theme="4" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G29:G29</xm:f>
-              <xm:sqref>E29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G30:G30</xm:f>
-              <xm:sqref>E30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G31:G31</xm:f>
-              <xm:sqref>E31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G32:G32</xm:f>
-              <xm:sqref>E32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G33:G33</xm:f>
-              <xm:sqref>E33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82D0AFD7-5C74-4C79-A2F2-0F589546B4B8}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{634DB51B-E217-4024-A65E-37D5E42ADEDE}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2462,152 +2650,28 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Arkusz1!E28:E28</xm:f>
-              <xm:sqref>G28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E29:E29</xm:f>
-              <xm:sqref>G29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E30:E30</xm:f>
-              <xm:sqref>G30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E31:E31</xm:f>
-              <xm:sqref>G31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E32:E32</xm:f>
-              <xm:sqref>G32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E33:E33</xm:f>
-              <xm:sqref>G33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{33BA76A2-D7DC-4A84-B389-A0C0A98C6DD9}">
-          <x14:colorSeries theme="3" tint="0.499984740745262"/>
-          <x14:colorNegative theme="1" tint="0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
-          <x14:colorFirst theme="1" tint="0.249977111117893"/>
-          <x14:colorLast theme="1" tint="0.249977111117893"/>
-          <x14:colorHigh theme="1" tint="0.249977111117893"/>
-          <x14:colorLow theme="1" tint="0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G28:G28</xm:f>
-              <xm:sqref>E28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3E3E39AC-A8C5-431E-B75D-0BB8FD868B02}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D13:D13</xm:f>
-              <xm:sqref>F13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D14:D14</xm:f>
-              <xm:sqref>F14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D15:D15</xm:f>
-              <xm:sqref>F15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D16:D16</xm:f>
-              <xm:sqref>F16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D17:D17</xm:f>
-              <xm:sqref>F17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D18:D18</xm:f>
-              <xm:sqref>F18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{931203B0-70C3-4DA2-8CF6-BA8919284A2E}">
-          <x14:colorSeries theme="3" tint="0.499984740745262"/>
-          <x14:colorNegative theme="1" tint="0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
-          <x14:colorFirst theme="1" tint="0.249977111117893"/>
-          <x14:colorLast theme="1" tint="0.249977111117893"/>
-          <x14:colorHigh theme="1" tint="0.249977111117893"/>
-          <x14:colorLow theme="1" tint="0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F13:F13</xm:f>
-              <xm:sqref>D13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F14:F14</xm:f>
-              <xm:sqref>D14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F15:F15</xm:f>
-              <xm:sqref>D15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F16:F16</xm:f>
-              <xm:sqref>D16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F17:F17</xm:f>
-              <xm:sqref>D17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F18:F18</xm:f>
-              <xm:sqref>D18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{9FA432DF-34F7-4C5C-A4C6-C1ECD8126F30}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D13:D13</xm:f>
-              <xm:sqref>G13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D14:D14</xm:f>
-              <xm:sqref>G14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D15:D15</xm:f>
-              <xm:sqref>G15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D16:D16</xm:f>
-              <xm:sqref>G16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D17:D17</xm:f>
-              <xm:sqref>G17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D18:D18</xm:f>
-              <xm:sqref>G18</xm:sqref>
+              <xm:f>Arkusz1!N20:N20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N21:N21</xm:f>
+              <xm:sqref>P21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N22:N22</xm:f>
+              <xm:sqref>P22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N23:N23</xm:f>
+              <xm:sqref>P23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N24:N24</xm:f>
+              <xm:sqref>P24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N25:N25</xm:f>
+              <xm:sqref>P25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/Spraw1/lab1.xlsx
+++ b/Spraw1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\Programy\FIZ31\Spraw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E385A-F7A4-4C17-976E-045BDEC2D309}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73052687-01AF-40A1-90FA-72B50629BFE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,10 +278,10 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -295,12 +295,37 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Napięcie od Natężenia</a:t>
+              <a:rPr lang="pl-PL">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Wykres</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> U(I), dla wykonanych pomiarów</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37719810486252126"/>
+          <c:y val="1.9777721121870859E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -310,10 +335,10 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr algn="ctr">
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -339,13 +364,13 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>U(I)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -366,6 +391,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln w="1270">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -384,7 +468,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -419,18 +503,36 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                      <a:t>y = 0.0057x + 0.0002</a:t>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = </a:t>
                     </a:r>
-                    <a:endParaRPr lang="pl-PL" sz="1400" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
                     <a:r>
-                      <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
-                      <a:t>Niepewnosc :</a:t>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>175.74</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>x + </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>1.13</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
@@ -438,8 +540,12 @@
                       <a:defRPr/>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
-                      <a:t>A=0.0002</a:t>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Niepewnosc wsp.:</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
@@ -447,10 +553,31 @@
                       <a:defRPr/>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
-                      <a:t>B=0.0003</a:t>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>A=0.03</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>B=0.05</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -459,7 +586,9 @@
                 <a:noFill/>
                 <a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
                       <a:alpha val="94000"/>
                     </a:schemeClr>
                   </a:solidFill>
@@ -490,76 +619,6 @@
           </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Arkusz1!$T$20:$T$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>1.9000000000000001E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.5000000000000001E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.1E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.6999999999999999E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.2999999999999999E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5.5000000000000003E-4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Arkusz1!$T$20:$T$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>1.9000000000000001E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.5000000000000001E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.1E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.6999999999999999E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.2999999999999999E-4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5.5000000000000003E-4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="x"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
@@ -628,9 +687,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$B$13:$B$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.9000000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5000000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.1E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6999999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2999999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.5000000000000003E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$B$13:$B$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.9000000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5000000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.1E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6999999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2999999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.5000000000000003E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$O$20:$O$25</c:f>
+              <c:f>Arkusz1!$F$13:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.61E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$13:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -654,33 +810,6 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$P$20:$P$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.8700000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.61E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0999999999999994E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -691,7 +820,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -712,8 +841,8 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -726,8 +855,8 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -755,8 +884,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>U[V]</a:t>
+                  <a:rPr lang="pl-PL">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>I[A]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -790,17 +923,17 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -813,6 +946,14 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -841,35 +982,12 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="74000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="30000"/>
-                      <a:lumOff val="70000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="1"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -880,8 +998,8 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -909,10 +1027,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>I[A]</a:t>
+                  <a:rPr lang="pl-PL">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>U[V]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -953,10 +1074,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -968,11 +1086,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="6350">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1594,13 +1714,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205361</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>109746</xdr:rowOff>
+      <xdr:colOff>205362</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>58072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>940905</xdr:colOff>
+      <xdr:colOff>1603514</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>159027</xdr:rowOff>
     </xdr:to>
@@ -1895,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2388,6 +2508,13 @@
       <c r="D36">
         <v>1.5829550418176852E-4</v>
       </c>
+      <c r="F36">
+        <f t="array" ref="F36:G37">LINEST(D13:D18,F13:F18,TRUE,TRUE)</f>
+        <v>175.74066694483381</v>
+      </c>
+      <c r="G36">
+        <v>-2.6611089493250084E-2</v>
+      </c>
       <c r="I36">
         <f t="array" ref="I36">LINEST(F13:F18, D13:D18,TRUE,TRUE)</f>
         <v>5.6892706660996465E-3</v>
@@ -2403,6 +2530,12 @@
       </c>
       <c r="D37">
         <v>2.902154906406708E-4</v>
+      </c>
+      <c r="F37">
+        <v>1.1246219730666647</v>
+      </c>
+      <c r="G37">
+        <v>5.1168013404058112E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2544,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{9FA432DF-34F7-4C5C-A4C6-C1ECD8126F30}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{634DB51B-E217-4024-A65E-37D5E42ADEDE}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2422,28 +2555,184 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
+              <xm:f>Arkusz1!N20:N20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N21:N21</xm:f>
+              <xm:sqref>P21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N22:N22</xm:f>
+              <xm:sqref>P22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N23:N23</xm:f>
+              <xm:sqref>P23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N24:N24</xm:f>
+              <xm:sqref>P24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N25:N25</xm:f>
+              <xm:sqref>P25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E4CB2CC6-7D6B-480A-B03C-593C12C693FC}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P20:P20</xm:f>
+              <xm:sqref>O20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P21:P21</xm:f>
+              <xm:sqref>O21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P22:P22</xm:f>
+              <xm:sqref>O22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P23:P23</xm:f>
+              <xm:sqref>O23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P24:P24</xm:f>
+              <xm:sqref>O24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P25:P25</xm:f>
+              <xm:sqref>O25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{364145CD-ACF0-4791-9CB1-5003D1F087A2}">
+          <x14:colorSeries theme="4"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
+          <x14:colorLast theme="4" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="4" tint="-0.249977111117893"/>
+          <x14:colorLow theme="4" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G29:G29</xm:f>
+              <xm:sqref>E29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G30:G30</xm:f>
+              <xm:sqref>E30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G31:G31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G32:G32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G33:G33</xm:f>
+              <xm:sqref>E33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82D0AFD7-5C74-4C79-A2F2-0F589546B4B8}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E28:E28</xm:f>
+              <xm:sqref>G28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E29:E29</xm:f>
+              <xm:sqref>G29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E30:E30</xm:f>
+              <xm:sqref>G30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E31:E31</xm:f>
+              <xm:sqref>G31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E32:E32</xm:f>
+              <xm:sqref>G32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E33:E33</xm:f>
+              <xm:sqref>G33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{33BA76A2-D7DC-4A84-B389-A0C0A98C6DD9}">
+          <x14:colorSeries theme="3" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G28:G28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3E3E39AC-A8C5-431E-B75D-0BB8FD868B02}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
               <xm:f>Arkusz1!D13:D13</xm:f>
-              <xm:sqref>G13</xm:sqref>
+              <xm:sqref>F13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D14:D14</xm:f>
-              <xm:sqref>G14</xm:sqref>
+              <xm:sqref>F14</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D15:D15</xm:f>
-              <xm:sqref>G15</xm:sqref>
+              <xm:sqref>F15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D16:D16</xm:f>
-              <xm:sqref>G16</xm:sqref>
+              <xm:sqref>F16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D17:D17</xm:f>
-              <xm:sqref>G17</xm:sqref>
+              <xm:sqref>F17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D18:D18</xm:f>
-              <xm:sqref>G18</xm:sqref>
+              <xm:sqref>F18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2483,7 +2772,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3E3E39AC-A8C5-431E-B75D-0BB8FD868B02}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{9FA432DF-34F7-4C5C-A4C6-C1ECD8126F30}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2495,183 +2784,27 @@
           <x14:sparklines>
             <x14:sparkline>
               <xm:f>Arkusz1!D13:D13</xm:f>
-              <xm:sqref>F13</xm:sqref>
+              <xm:sqref>G13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D14:D14</xm:f>
-              <xm:sqref>F14</xm:sqref>
+              <xm:sqref>G14</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D15:D15</xm:f>
-              <xm:sqref>F15</xm:sqref>
+              <xm:sqref>G15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D16:D16</xm:f>
-              <xm:sqref>F16</xm:sqref>
+              <xm:sqref>G16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D17:D17</xm:f>
-              <xm:sqref>F17</xm:sqref>
+              <xm:sqref>G17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D18:D18</xm:f>
-              <xm:sqref>F18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{33BA76A2-D7DC-4A84-B389-A0C0A98C6DD9}">
-          <x14:colorSeries theme="3" tint="0.499984740745262"/>
-          <x14:colorNegative theme="1" tint="0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
-          <x14:colorFirst theme="1" tint="0.249977111117893"/>
-          <x14:colorLast theme="1" tint="0.249977111117893"/>
-          <x14:colorHigh theme="1" tint="0.249977111117893"/>
-          <x14:colorLow theme="1" tint="0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G28:G28</xm:f>
-              <xm:sqref>E28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82D0AFD7-5C74-4C79-A2F2-0F589546B4B8}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E28:E28</xm:f>
-              <xm:sqref>G28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E29:E29</xm:f>
-              <xm:sqref>G29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E30:E30</xm:f>
-              <xm:sqref>G30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E31:E31</xm:f>
-              <xm:sqref>G31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E32:E32</xm:f>
-              <xm:sqref>G32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E33:E33</xm:f>
-              <xm:sqref>G33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{364145CD-ACF0-4791-9CB1-5003D1F087A2}">
-          <x14:colorSeries theme="4"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
-          <x14:colorLast theme="4" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="4" tint="-0.249977111117893"/>
-          <x14:colorLow theme="4" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G29:G29</xm:f>
-              <xm:sqref>E29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G30:G30</xm:f>
-              <xm:sqref>E30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G31:G31</xm:f>
-              <xm:sqref>E31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G32:G32</xm:f>
-              <xm:sqref>E32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G33:G33</xm:f>
-              <xm:sqref>E33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E4CB2CC6-7D6B-480A-B03C-593C12C693FC}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P20:P20</xm:f>
-              <xm:sqref>O20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P21:P21</xm:f>
-              <xm:sqref>O21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P22:P22</xm:f>
-              <xm:sqref>O22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P23:P23</xm:f>
-              <xm:sqref>O23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P24:P24</xm:f>
-              <xm:sqref>O24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P25:P25</xm:f>
-              <xm:sqref>O25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{634DB51B-E217-4024-A65E-37D5E42ADEDE}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N20:N20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N21:N21</xm:f>
-              <xm:sqref>P21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N22:N22</xm:f>
-              <xm:sqref>P22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N23:N23</xm:f>
-              <xm:sqref>P23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N24:N24</xm:f>
-              <xm:sqref>P24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N25:N25</xm:f>
-              <xm:sqref>P25</xm:sqref>
+              <xm:sqref>G18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/Spraw1/lab1.xlsx
+++ b/Spraw1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\Programy\FIZ31\Spraw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73052687-01AF-40A1-90FA-72B50629BFE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11846D28-F6D2-4E00-BCB6-23C0F1EAEC56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,7 +524,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>x + </a:t>
+                      <a:t>x </a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="pl-PL" sz="1400" baseline="0">
@@ -532,7 +532,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>1.13</a:t>
+                      <a:t>- 0.0266</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
@@ -558,7 +558,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>A=0.03</a:t>
+                      <a:t>A=1.13</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
@@ -616,6 +616,20 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
@@ -2015,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="G40" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2544,7 +2558,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{634DB51B-E217-4024-A65E-37D5E42ADEDE}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{9FA432DF-34F7-4C5C-A4C6-C1ECD8126F30}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2555,28 +2569,184 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Arkusz1!N20:N20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N21:N21</xm:f>
-              <xm:sqref>P21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N22:N22</xm:f>
-              <xm:sqref>P22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N23:N23</xm:f>
-              <xm:sqref>P23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N24:N24</xm:f>
-              <xm:sqref>P24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N25:N25</xm:f>
-              <xm:sqref>P25</xm:sqref>
+              <xm:f>Arkusz1!D13:D13</xm:f>
+              <xm:sqref>G13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D14:D14</xm:f>
+              <xm:sqref>G14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D15:D15</xm:f>
+              <xm:sqref>G15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D16:D16</xm:f>
+              <xm:sqref>G16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D17:D17</xm:f>
+              <xm:sqref>G17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D18:D18</xm:f>
+              <xm:sqref>G18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{931203B0-70C3-4DA2-8CF6-BA8919284A2E}">
+          <x14:colorSeries theme="3" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F13:F13</xm:f>
+              <xm:sqref>D13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F14:F14</xm:f>
+              <xm:sqref>D14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F15:F15</xm:f>
+              <xm:sqref>D15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F16:F16</xm:f>
+              <xm:sqref>D16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F17:F17</xm:f>
+              <xm:sqref>D17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!F18:F18</xm:f>
+              <xm:sqref>D18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3E3E39AC-A8C5-431E-B75D-0BB8FD868B02}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D13:D13</xm:f>
+              <xm:sqref>F13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D14:D14</xm:f>
+              <xm:sqref>F14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D15:D15</xm:f>
+              <xm:sqref>F15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D16:D16</xm:f>
+              <xm:sqref>F16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D17:D17</xm:f>
+              <xm:sqref>F17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D18:D18</xm:f>
+              <xm:sqref>F18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{33BA76A2-D7DC-4A84-B389-A0C0A98C6DD9}">
+          <x14:colorSeries theme="3" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G28:G28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82D0AFD7-5C74-4C79-A2F2-0F589546B4B8}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E28:E28</xm:f>
+              <xm:sqref>G28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E29:E29</xm:f>
+              <xm:sqref>G29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E30:E30</xm:f>
+              <xm:sqref>G30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E31:E31</xm:f>
+              <xm:sqref>G31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E32:E32</xm:f>
+              <xm:sqref>G32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!E33:E33</xm:f>
+              <xm:sqref>G33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{364145CD-ACF0-4791-9CB1-5003D1F087A2}">
+          <x14:colorSeries theme="4"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
+          <x14:colorLast theme="4" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="4" tint="-0.249977111117893"/>
+          <x14:colorLow theme="4" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G29:G29</xm:f>
+              <xm:sqref>E29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G30:G30</xm:f>
+              <xm:sqref>E30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G31:G31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G32:G32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!G33:G33</xm:f>
+              <xm:sqref>E33</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2616,39 +2786,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{364145CD-ACF0-4791-9CB1-5003D1F087A2}">
-          <x14:colorSeries theme="4"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
-          <x14:colorLast theme="4" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="4" tint="-0.249977111117893"/>
-          <x14:colorLow theme="4" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G29:G29</xm:f>
-              <xm:sqref>E29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G30:G30</xm:f>
-              <xm:sqref>E30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G31:G31</xm:f>
-              <xm:sqref>E31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G32:G32</xm:f>
-              <xm:sqref>E32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G33:G33</xm:f>
-              <xm:sqref>E33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82D0AFD7-5C74-4C79-A2F2-0F589546B4B8}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{634DB51B-E217-4024-A65E-37D5E42ADEDE}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2659,152 +2797,28 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Arkusz1!E28:E28</xm:f>
-              <xm:sqref>G28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E29:E29</xm:f>
-              <xm:sqref>G29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E30:E30</xm:f>
-              <xm:sqref>G30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E31:E31</xm:f>
-              <xm:sqref>G31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E32:E32</xm:f>
-              <xm:sqref>G32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E33:E33</xm:f>
-              <xm:sqref>G33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{33BA76A2-D7DC-4A84-B389-A0C0A98C6DD9}">
-          <x14:colorSeries theme="3" tint="0.499984740745262"/>
-          <x14:colorNegative theme="1" tint="0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
-          <x14:colorFirst theme="1" tint="0.249977111117893"/>
-          <x14:colorLast theme="1" tint="0.249977111117893"/>
-          <x14:colorHigh theme="1" tint="0.249977111117893"/>
-          <x14:colorLow theme="1" tint="0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G28:G28</xm:f>
-              <xm:sqref>E28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3E3E39AC-A8C5-431E-B75D-0BB8FD868B02}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D13:D13</xm:f>
-              <xm:sqref>F13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D14:D14</xm:f>
-              <xm:sqref>F14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D15:D15</xm:f>
-              <xm:sqref>F15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D16:D16</xm:f>
-              <xm:sqref>F16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D17:D17</xm:f>
-              <xm:sqref>F17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D18:D18</xm:f>
-              <xm:sqref>F18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{931203B0-70C3-4DA2-8CF6-BA8919284A2E}">
-          <x14:colorSeries theme="3" tint="0.499984740745262"/>
-          <x14:colorNegative theme="1" tint="0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
-          <x14:colorFirst theme="1" tint="0.249977111117893"/>
-          <x14:colorLast theme="1" tint="0.249977111117893"/>
-          <x14:colorHigh theme="1" tint="0.249977111117893"/>
-          <x14:colorLow theme="1" tint="0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F13:F13</xm:f>
-              <xm:sqref>D13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F14:F14</xm:f>
-              <xm:sqref>D14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F15:F15</xm:f>
-              <xm:sqref>D15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F16:F16</xm:f>
-              <xm:sqref>D16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F17:F17</xm:f>
-              <xm:sqref>D17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!F18:F18</xm:f>
-              <xm:sqref>D18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{9FA432DF-34F7-4C5C-A4C6-C1ECD8126F30}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D13:D13</xm:f>
-              <xm:sqref>G13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D14:D14</xm:f>
-              <xm:sqref>G14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D15:D15</xm:f>
-              <xm:sqref>G15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D16:D16</xm:f>
-              <xm:sqref>G16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D17:D17</xm:f>
-              <xm:sqref>G17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D18:D18</xm:f>
-              <xm:sqref>G18</xm:sqref>
+              <xm:f>Arkusz1!N20:N20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N21:N21</xm:f>
+              <xm:sqref>P21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N22:N22</xm:f>
+              <xm:sqref>P22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N23:N23</xm:f>
+              <xm:sqref>P23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N24:N24</xm:f>
+              <xm:sqref>P24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N25:N25</xm:f>
+              <xm:sqref>P25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/Spraw1/lab1.xlsx
+++ b/Spraw1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\Programy\FIZ31\Spraw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11846D28-F6D2-4E00-BCB6-23C0F1EAEC56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3A5AE7-4E5F-41E4-92B3-076B96384DF9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>U(V)</t>
   </si>
@@ -39,86 +39,10 @@
     <t>R_w[Ω]</t>
   </si>
   <si>
-    <t>Ten arkusz zostal stworzony uzywajac angielskiej notacji przez co do notacji zmiennoprzecinkowej sluza kropki "." a nie przecinki ","</t>
-  </si>
-  <si>
-    <r>
-      <t>R[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ω]</t>
-    </r>
-  </si>
-  <si>
-    <t>u(I)[mA]</t>
-  </si>
-  <si>
     <t>u(U)[V]</t>
   </si>
   <si>
-    <r>
-      <t>u_c(R)[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
     <t>u_c(R_w)[Ω]</t>
-  </si>
-  <si>
-    <r>
-      <t>R_srednia[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ω]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>u(R_srednia)[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ω]</t>
-    </r>
   </si>
   <si>
     <t>srednia:</t>
@@ -129,22 +53,48 @@
   <si>
     <t>I[A]</t>
   </si>
+  <si>
+    <t>Dane Pomiarowe:</t>
+  </si>
+  <si>
+    <t>I[mA]</t>
+  </si>
+  <si>
+    <t>REGLINP(ang wer. LINEEST) U(I), gdzie dla y=Ax+B, A to Rw</t>
+  </si>
+  <si>
+    <t>A=</t>
+  </si>
+  <si>
+    <t>u(A)=</t>
+  </si>
+  <si>
+    <t>=B</t>
+  </si>
+  <si>
+    <t>=u(B)</t>
+  </si>
+  <si>
+    <t>R[Ω]</t>
+  </si>
+  <si>
+    <t>u_c(R)[Ω]</t>
+  </si>
+  <si>
+    <t>R_srednia[Ω]</t>
+  </si>
+  <si>
+    <t>u(R_srednia)[Ω]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,13 +122,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,7 +151,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -226,26 +200,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -558,7 +540,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>A=1.13</a:t>
+                      <a:t>u_c(A)=1.13</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
@@ -571,7 +553,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>B=0.05</a:t>
+                      <a:t>u_c(B)=0.05</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US" sz="1400">
                       <a:solidFill>
@@ -1728,15 +1710,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205362</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>58072</xdr:rowOff>
+      <xdr:colOff>205361</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1603514</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>159027</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2027,30 +2009,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:T37"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.44140625" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="6">
+        <v>3.29</v>
+      </c>
+      <c r="C2" s="7">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
+        <v>4.78</v>
+      </c>
+      <c r="C3" s="7">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>6.35</v>
+      </c>
+      <c r="C4" s="7">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>7.89</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44.9</v>
+      </c>
+    </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
+      <c r="B6" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>12.44</v>
+      </c>
+      <c r="C7" s="7">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2066,490 +2111,387 @@
       <c r="M8" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>3.29</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>0.02</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" ref="G13:G18" si="0">ROUND(B13*1000,1)</f>
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="4">
-        <f>ROUND(D13/(F13/1000),2)</f>
-        <v>175935.83</v>
-      </c>
-      <c r="I13" s="4">
-        <f>ROUND(SQRT( POWER((E13/(F13/1000)),2) + POWER(D13/POWER(F13/1000,2),2) *POWER(G13/1000,2)),2)</f>
-        <v>1881666.92</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="G13" s="7">
+        <f>ROUND(0.00019,4)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H13" s="8">
+        <f>ROUND(D13/(F13),2)</f>
+        <v>175.94</v>
+      </c>
+      <c r="I13" s="8">
+        <f>ROUND(SQRT( POWER((E13/(F13)),2) + POWER(D13/POWER(F13,2),2) *POWER(G13,2)),2)</f>
+        <v>2.16</v>
+      </c>
+      <c r="J13" s="8">
         <f>J15</f>
         <v>175</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="8">
         <f>(H13-J13)^2</f>
-        <v>30891869362.288895</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+        <v>0.88359999999999572</v>
+      </c>
+      <c r="L13" s="8">
+        <v>175.74</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="B14" s="7">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>4.78</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>0.02</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" ref="H14:H18" si="1">ROUND(D14/(F14/1000),2)</f>
-        <v>171942.45</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" ref="I14:I18" si="2">ROUND(SQRT( POWER((E14/(F14/1000)),2) + POWER(D14/POWER(F14/1000,2),2) *POWER(G14/1000,2)),2)</f>
-        <v>1855494.16</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="G14" s="7">
+        <f t="shared" ref="G14:G18" si="0">ROUND(0.00019,4)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" ref="H14:H18" si="1">ROUND(D14/(F14),2)</f>
+        <v>171.94</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" ref="I14:I18" si="2">ROUND(SQRT( POWER((E14/(F14)),2) + POWER(D14/POWER(F14,2),2) *POWER(G14,2)),2)</f>
+        <v>1.43</v>
+      </c>
+      <c r="J14" s="8">
         <v>175</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="8">
         <f t="shared" ref="K14:K18" si="3">(H14-J14)^2</f>
-        <v>29504056879.502502</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+        <v>9.3636000000000141</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>3.1E-4</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>6.35</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="6">
         <v>0.02</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>3.61E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="H15" s="4">
-        <f>ROUND(D15/(F15/1000),2)</f>
-        <v>175900.28</v>
-      </c>
-      <c r="I15" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>175.9</v>
+      </c>
+      <c r="I15" s="8">
         <f t="shared" si="2"/>
-        <v>1461775.26</v>
-      </c>
-      <c r="J15" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J15" s="8">
         <v>175</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="8">
         <f t="shared" si="3"/>
-        <v>30879374031.0784</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+        <v>0.81000000000001027</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>7.89</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>0.03</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="H16" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>175723.83</v>
-      </c>
-      <c r="I16" s="4">
+        <v>175.72</v>
+      </c>
+      <c r="I16" s="8">
         <f t="shared" si="2"/>
-        <v>1565468.57</v>
-      </c>
-      <c r="J16" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="J16" s="8">
         <v>175</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="8">
         <f t="shared" si="3"/>
-        <v>30817391714.368896</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+        <v>0.51839999999999842</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>9.5</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>0.03</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="7">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="H17" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>175276.75</v>
-      </c>
-      <c r="I17" s="4">
+        <v>175.28</v>
+      </c>
+      <c r="I17" s="8">
         <f t="shared" si="2"/>
-        <v>1293555.49</v>
-      </c>
-      <c r="J17" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="J17" s="8">
         <v>175</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="8">
         <f t="shared" si="3"/>
-        <v>30660622853.0625</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+        <v>7.8400000000000636E-2</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>12.44</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>0.04</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H18" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>175211.27</v>
-      </c>
-      <c r="I18" s="4">
+        <v>175.21</v>
+      </c>
+      <c r="I18" s="8">
         <f t="shared" si="2"/>
-        <v>1480658.71</v>
-      </c>
-      <c r="J18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="J18" s="8">
         <v>175</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="8">
         <f t="shared" si="3"/>
-        <v>30637695815.512897</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+        <v>4.4100000000003345E-2</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="5">
+        <v>4</v>
+      </c>
+      <c r="H19" s="9">
         <f>SUM(H13:H18)/6</f>
-        <v>174998.40166666664</v>
-      </c>
-      <c r="K19" s="5">
+        <v>174.99833333333333</v>
+      </c>
+      <c r="K19" s="9">
         <f>ROUND(SQRT(SUM(K13:K18)/(6*5)),2)</f>
-        <v>78185.89</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="O20" s="4">
+      <c r="O20" s="6">
         <v>3.29</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="7">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="6">
         <v>0.02</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="7">
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="O21" s="4">
+      <c r="O21" s="6">
         <v>4.78</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="7">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="6">
         <v>0.02</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="7">
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <f>LINEST(F13:F18,D13:D18,TRUE,TRUE)</f>
-        <v>5.6892706660996465E-3</v>
-      </c>
-      <c r="D22">
-        <f t="array" ref="D22">LINEST(G13:G18,E13:E18,TRUE,TRUE)</f>
-        <v>16.000000000000004</v>
-      </c>
-      <c r="E22">
-        <f t="array" ref="E22">LINEST(H13:H18,F13:F18,TRUE,TRUE)</f>
-        <v>15698.44951500454</v>
-      </c>
-      <c r="F22">
-        <f t="array" ref="F22">LINEST(I13:I18,G13:G18,TRUE,TRUE)</f>
-        <v>-1006870.8607142859</v>
-      </c>
-      <c r="G22">
-        <f t="array" ref="G22">LINEST(J13:J18,H13:H18,TRUE,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="array" ref="H22">LINEST(K13:K18,I13:I18,TRUE,TRUE)</f>
-        <v>-987.88666759040439</v>
-      </c>
-      <c r="O22" s="4">
+      <c r="O22" s="6">
         <v>6.35</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="7">
         <v>3.61E-2</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="6">
         <v>0.02</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="7">
         <v>3.1E-4</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C23" t="e">
-        <f t="array" ref="C23">LINEST(F14:F19,D14:D19,TRUE,TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O23" s="4">
+      <c r="O23" s="6">
         <v>7.89</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="7">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="6">
         <v>0.03</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="7">
         <v>3.6999999999999999E-4</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C24" t="e">
-        <f t="array" ref="C24">LINEST(F15:F20,D15:D20,TRUE,TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O24" s="4">
+      <c r="O24" s="6">
         <v>9.5</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="7">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="6">
         <v>0.03</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="7">
         <v>4.2999999999999999E-4</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C25" t="e">
-        <f t="array" ref="C25">LINEST(F16:F21,D16:D21,TRUE,TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O25" s="4">
+      <c r="O25" s="6">
         <v>12.44</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="6">
         <v>0.04</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="7">
         <v>5.5000000000000003E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C26" t="e">
-        <f t="array" ref="C26">LINEST(F17:F22,D17:D22,TRUE,TRUE)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E28" s="4">
-        <v>3.29</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.02</v>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E29" s="4">
-        <v>4.78</v>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="4">
-        <v>0.02</v>
+        <f t="array" ref="F29:G30">LINEST(D13:D18,F13:F18,TRUE,TRUE)</f>
+        <v>175.74066694483381</v>
       </c>
       <c r="G29" s="4">
-        <v>27.8</v>
+        <v>-2.6611089493250084E-2</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E30" s="4">
-        <v>6.35</v>
+      <c r="E30" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F30" s="4">
-        <v>0.02</v>
+        <v>1.1246219730666647</v>
       </c>
       <c r="G30" s="4">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E31" s="4">
-        <v>7.89</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="G31" s="4">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E32" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="G32" s="4">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E33" s="4">
-        <v>12.44</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="G33" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36">
-        <f t="array" ref="C36:D37">LINEST(F13:F18,D13:D18,TRUE,TRUE)</f>
-        <v>5.6892706660996465E-3</v>
-      </c>
-      <c r="D36">
-        <v>1.5829550418176852E-4</v>
-      </c>
-      <c r="F36">
-        <f t="array" ref="F36:G37">LINEST(D13:D18,F13:F18,TRUE,TRUE)</f>
-        <v>175.74066694483381</v>
-      </c>
-      <c r="G36">
-        <v>-2.6611089493250084E-2</v>
-      </c>
-      <c r="I36">
-        <f t="array" ref="I36">LINEST(F13:F18, D13:D18,TRUE,TRUE)</f>
-        <v>5.6892706660996465E-3</v>
-      </c>
-      <c r="J36">
-        <f>LINEST(G13:G18, E13:E18,TRUE,TRUE)</f>
-        <v>16.000000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37">
-        <v>3.6407502674539565E-5</v>
-      </c>
-      <c r="D37">
-        <v>2.902154906406708E-4</v>
-      </c>
-      <c r="F37">
-        <v>1.1246219730666647</v>
-      </c>
-      <c r="G37">
         <v>5.1168013404058112E-2</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2558,7 +2500,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{9FA432DF-34F7-4C5C-A4C6-C1ECD8126F30}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4FBB06A4-CCC7-4847-9DFB-C83276F2E90A}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2570,27 +2512,135 @@
           <x14:sparklines>
             <x14:sparkline>
               <xm:f>Arkusz1!D13:D13</xm:f>
-              <xm:sqref>G13</xm:sqref>
+              <xm:sqref>F13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D14:D14</xm:f>
-              <xm:sqref>G14</xm:sqref>
+              <xm:sqref>F14</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D15:D15</xm:f>
-              <xm:sqref>G15</xm:sqref>
+              <xm:sqref>F15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D16:D16</xm:f>
-              <xm:sqref>G16</xm:sqref>
+              <xm:sqref>F16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D17:D17</xm:f>
-              <xm:sqref>G17</xm:sqref>
+              <xm:sqref>F17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Arkusz1!D18:D18</xm:f>
-              <xm:sqref>G18</xm:sqref>
+              <xm:sqref>F18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{634DB51B-E217-4024-A65E-37D5E42ADEDE}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N20:N20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N21:N21</xm:f>
+              <xm:sqref>P21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N22:N22</xm:f>
+              <xm:sqref>P22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N23:N23</xm:f>
+              <xm:sqref>P23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N24:N24</xm:f>
+              <xm:sqref>P24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!N25:N25</xm:f>
+              <xm:sqref>P25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E4CB2CC6-7D6B-480A-B03C-593C12C693FC}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P20:P20</xm:f>
+              <xm:sqref>O20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P21:P21</xm:f>
+              <xm:sqref>O21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P22:P22</xm:f>
+              <xm:sqref>O22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P23:P23</xm:f>
+              <xm:sqref>O23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P24:P24</xm:f>
+              <xm:sqref>O24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!P25:P25</xm:f>
+              <xm:sqref>O25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F0E0D6CC-FAEB-40D8-94B9-9AB5943A1534}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Arkusz1!A2:A2</xm:f>
+              <xm:sqref>C2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!A3:A3</xm:f>
+              <xm:sqref>C3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!A4:A4</xm:f>
+              <xm:sqref>C4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!A5:A5</xm:f>
+              <xm:sqref>C5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!A6:A6</xm:f>
+              <xm:sqref>C6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!A7:A7</xm:f>
+              <xm:sqref>C7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2630,43 +2680,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3E3E39AC-A8C5-431E-B75D-0BB8FD868B02}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D13:D13</xm:f>
-              <xm:sqref>F13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D14:D14</xm:f>
-              <xm:sqref>F14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D15:D15</xm:f>
-              <xm:sqref>F15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D16:D16</xm:f>
-              <xm:sqref>F16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D17:D17</xm:f>
-              <xm:sqref>F17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!D18:D18</xm:f>
-              <xm:sqref>F18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{33BA76A2-D7DC-4A84-B389-A0C0A98C6DD9}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{A45F5849-D858-4114-8B42-571C0D4DC211}">
           <x14:colorSeries theme="3" tint="0.499984740745262"/>
           <x14:colorNegative theme="1" tint="0.249977111117893"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2677,148 +2691,28 @@
           <x14:colorLow theme="1" tint="0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Arkusz1!G28:G28</xm:f>
-              <xm:sqref>E28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{82D0AFD7-5C74-4C79-A2F2-0F589546B4B8}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E28:E28</xm:f>
-              <xm:sqref>G28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E29:E29</xm:f>
-              <xm:sqref>G29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E30:E30</xm:f>
-              <xm:sqref>G30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E31:E31</xm:f>
-              <xm:sqref>G31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E32:E32</xm:f>
-              <xm:sqref>G32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!E33:E33</xm:f>
-              <xm:sqref>G33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{364145CD-ACF0-4791-9CB1-5003D1F087A2}">
-          <x14:colorSeries theme="4"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
-          <x14:colorLast theme="4" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="4" tint="-0.249977111117893"/>
-          <x14:colorLow theme="4" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G29:G29</xm:f>
-              <xm:sqref>E29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G30:G30</xm:f>
-              <xm:sqref>E30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G31:G31</xm:f>
-              <xm:sqref>E31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G32:G32</xm:f>
-              <xm:sqref>E32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!G33:G33</xm:f>
-              <xm:sqref>E33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E4CB2CC6-7D6B-480A-B03C-593C12C693FC}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P20:P20</xm:f>
-              <xm:sqref>O20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P21:P21</xm:f>
-              <xm:sqref>O21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P22:P22</xm:f>
-              <xm:sqref>O22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P23:P23</xm:f>
-              <xm:sqref>O23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P24:P24</xm:f>
-              <xm:sqref>O24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!P25:P25</xm:f>
-              <xm:sqref>O25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{634DB51B-E217-4024-A65E-37D5E42ADEDE}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N20:N20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N21:N21</xm:f>
-              <xm:sqref>P21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N22:N22</xm:f>
-              <xm:sqref>P22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N23:N23</xm:f>
-              <xm:sqref>P23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N24:N24</xm:f>
-              <xm:sqref>P24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Arkusz1!N25:N25</xm:f>
-              <xm:sqref>P25</xm:sqref>
+              <xm:f>Arkusz1!D2:D2</xm:f>
+              <xm:sqref>B2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D3:D3</xm:f>
+              <xm:sqref>B3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D4:D4</xm:f>
+              <xm:sqref>B4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D5:D5</xm:f>
+              <xm:sqref>B5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D6:D6</xm:f>
+              <xm:sqref>B6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Arkusz1!D7:D7</xm:f>
+              <xm:sqref>B7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
